--- a/input/discurso_manual_preenchido.xlsx
+++ b/input/discurso_manual_preenchido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duque\Desktop\PUC\Mestrado\Verão 1\Estatística\Data Science\Trabalho Final\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2678BB-191F-4ADB-A64D-052701713CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC063BD-89E0-4849-AFEF-CC9737D185E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2010,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B299" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D300" sqref="D300"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="52.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9908,6 +9908,9 @@
       <c r="C304" s="4" t="s">
         <v>328</v>
       </c>
+      <c r="D304" s="4">
+        <v>0</v>
+      </c>
       <c r="E304">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -9921,7 +9924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>4824</v>
       </c>
@@ -9930,6 +9933,9 @@
       </c>
       <c r="C305" s="4" t="s">
         <v>329</v>
+      </c>
+      <c r="D305" s="4">
+        <v>0</v>
       </c>
       <c r="E305">
         <f t="shared" si="12"/>
@@ -9954,6 +9960,9 @@
       <c r="C306" s="4" t="s">
         <v>330</v>
       </c>
+      <c r="D306" s="4">
+        <v>0</v>
+      </c>
       <c r="E306">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -9977,6 +9986,9 @@
       <c r="C307" s="4" t="s">
         <v>332</v>
       </c>
+      <c r="D307" s="4">
+        <v>0</v>
+      </c>
       <c r="E307">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -10000,6 +10012,9 @@
       <c r="C308" s="4" t="s">
         <v>333</v>
       </c>
+      <c r="D308" s="4">
+        <v>0</v>
+      </c>
       <c r="E308">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -10023,6 +10038,9 @@
       <c r="C309" s="4" t="s">
         <v>334</v>
       </c>
+      <c r="D309" s="4">
+        <v>0</v>
+      </c>
       <c r="E309">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -10046,6 +10064,9 @@
       <c r="C310" s="4" t="s">
         <v>335</v>
       </c>
+      <c r="D310" s="4">
+        <v>0</v>
+      </c>
       <c r="E310">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -10092,6 +10113,9 @@
       <c r="C312" s="4" t="s">
         <v>337</v>
       </c>
+      <c r="D312" s="4">
+        <v>0</v>
+      </c>
       <c r="E312">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -10115,6 +10139,9 @@
       <c r="C313" s="4" t="s">
         <v>338</v>
       </c>
+      <c r="D313" s="4">
+        <v>0</v>
+      </c>
       <c r="E313">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -10128,7 +10155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>26674</v>
       </c>
@@ -10138,17 +10165,20 @@
       <c r="C314" s="4" t="s">
         <v>339</v>
       </c>
+      <c r="D314" s="4">
+        <v>2</v>
+      </c>
       <c r="E314">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F314">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G314">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10161,6 +10191,9 @@
       <c r="C315" s="4" t="s">
         <v>340</v>
       </c>
+      <c r="D315" s="4">
+        <v>0</v>
+      </c>
       <c r="E315">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -10184,6 +10217,9 @@
       <c r="C316" s="4" t="s">
         <v>341</v>
       </c>
+      <c r="D316" s="4">
+        <v>0</v>
+      </c>
       <c r="E316">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -10207,6 +10243,9 @@
       <c r="C317" s="4" t="s">
         <v>342</v>
       </c>
+      <c r="D317" s="4">
+        <v>0</v>
+      </c>
       <c r="E317">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -10220,7 +10259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" ht="392.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>40402</v>
       </c>
@@ -10229,6 +10268,9 @@
       </c>
       <c r="C318" s="4" t="s">
         <v>343</v>
+      </c>
+      <c r="D318" s="4">
+        <v>0</v>
       </c>
       <c r="E318">
         <f t="shared" si="12"/>
@@ -10253,6 +10295,9 @@
       <c r="C319" s="4" t="s">
         <v>344</v>
       </c>
+      <c r="D319" s="4">
+        <v>0</v>
+      </c>
       <c r="E319">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -10276,6 +10321,9 @@
       <c r="C320" s="4" t="s">
         <v>345</v>
       </c>
+      <c r="D320" s="4">
+        <v>0</v>
+      </c>
       <c r="E320">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -10299,6 +10347,9 @@
       <c r="C321" s="4" t="s">
         <v>346</v>
       </c>
+      <c r="D321" s="4">
+        <v>0</v>
+      </c>
       <c r="E321">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -10322,9 +10373,12 @@
       <c r="C322" s="4" t="s">
         <v>347</v>
       </c>
+      <c r="D322" s="4">
+        <v>1</v>
+      </c>
       <c r="E322">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F322">
         <f t="shared" si="13"/>
@@ -10332,7 +10386,7 @@
       </c>
       <c r="G322">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10345,6 +10399,9 @@
       <c r="C323" s="4" t="s">
         <v>348</v>
       </c>
+      <c r="D323" s="4">
+        <v>0</v>
+      </c>
       <c r="E323">
         <f t="shared" ref="E323:E386" si="15">IF(D323=1,1,0)</f>
         <v>0</v>
@@ -10368,6 +10425,9 @@
       <c r="C324" s="4" t="s">
         <v>349</v>
       </c>
+      <c r="D324" s="4">
+        <v>0</v>
+      </c>
       <c r="E324">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10391,6 +10451,9 @@
       <c r="C325" s="4" t="s">
         <v>350</v>
       </c>
+      <c r="D325" s="4">
+        <v>0</v>
+      </c>
       <c r="E325">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10414,9 +10477,12 @@
       <c r="C326" s="4" t="s">
         <v>351</v>
       </c>
+      <c r="D326" s="4">
+        <v>1</v>
+      </c>
       <c r="E326">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F326">
         <f t="shared" si="16"/>
@@ -10424,10 +10490,10 @@
       </c>
       <c r="G326">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>52130</v>
       </c>
@@ -10436,6 +10502,9 @@
       </c>
       <c r="C327" s="4" t="s">
         <v>352</v>
+      </c>
+      <c r="D327" s="4">
+        <v>0</v>
       </c>
       <c r="E327">
         <f t="shared" si="15"/>
@@ -10460,6 +10529,9 @@
       <c r="C328" s="4" t="s">
         <v>353</v>
       </c>
+      <c r="D328" s="4">
+        <v>0</v>
+      </c>
       <c r="E328">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10483,6 +10555,9 @@
       <c r="C329" s="4" t="s">
         <v>354</v>
       </c>
+      <c r="D329" s="4">
+        <v>0</v>
+      </c>
       <c r="E329">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10506,6 +10581,9 @@
       <c r="C330" s="4" t="s">
         <v>355</v>
       </c>
+      <c r="D330" s="4">
+        <v>0</v>
+      </c>
       <c r="E330">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10529,6 +10607,9 @@
       <c r="C331" s="4" t="s">
         <v>356</v>
       </c>
+      <c r="D331" s="4">
+        <v>0</v>
+      </c>
       <c r="E331">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10552,6 +10633,9 @@
       <c r="C332" s="4" t="s">
         <v>357</v>
       </c>
+      <c r="D332" s="4">
+        <v>0</v>
+      </c>
       <c r="E332">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10575,6 +10659,9 @@
       <c r="C333" s="4" t="s">
         <v>358</v>
       </c>
+      <c r="D333" s="4">
+        <v>0</v>
+      </c>
       <c r="E333">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10598,6 +10685,9 @@
       <c r="C334" s="4" t="s">
         <v>359</v>
       </c>
+      <c r="D334" s="4">
+        <v>0</v>
+      </c>
       <c r="E334">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10621,6 +10711,9 @@
       <c r="C335" s="4" t="s">
         <v>360</v>
       </c>
+      <c r="D335" s="4">
+        <v>0</v>
+      </c>
       <c r="E335">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10644,6 +10737,9 @@
       <c r="C336" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="D336" s="4">
+        <v>0</v>
+      </c>
       <c r="E336">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10667,6 +10763,9 @@
       <c r="C337" s="4" t="s">
         <v>361</v>
       </c>
+      <c r="D337" s="4">
+        <v>0</v>
+      </c>
       <c r="E337">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10690,17 +10789,20 @@
       <c r="C338" s="4" t="s">
         <v>362</v>
       </c>
+      <c r="D338" s="4">
+        <v>2</v>
+      </c>
       <c r="E338">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F338">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G338">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10713,6 +10815,9 @@
       <c r="C339" s="4" t="s">
         <v>363</v>
       </c>
+      <c r="D339" s="4">
+        <v>0</v>
+      </c>
       <c r="E339">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10736,6 +10841,9 @@
       <c r="C340" s="4" t="s">
         <v>364</v>
       </c>
+      <c r="D340" s="4">
+        <v>0</v>
+      </c>
       <c r="E340">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10759,6 +10867,9 @@
       <c r="C341" s="4" t="s">
         <v>365</v>
       </c>
+      <c r="D341" s="4">
+        <v>0</v>
+      </c>
       <c r="E341">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10782,6 +10893,9 @@
       <c r="C342" s="4" t="s">
         <v>366</v>
       </c>
+      <c r="D342" s="4">
+        <v>0</v>
+      </c>
       <c r="E342">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10805,6 +10919,9 @@
       <c r="C343" s="4" t="s">
         <v>367</v>
       </c>
+      <c r="D343" s="4">
+        <v>0</v>
+      </c>
       <c r="E343">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10828,6 +10945,9 @@
       <c r="C344" s="4" t="s">
         <v>368</v>
       </c>
+      <c r="D344" s="4">
+        <v>0</v>
+      </c>
       <c r="E344">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10851,6 +10971,9 @@
       <c r="C345" s="4" t="s">
         <v>369</v>
       </c>
+      <c r="D345" s="4">
+        <v>0</v>
+      </c>
       <c r="E345">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10874,6 +10997,9 @@
       <c r="C346" s="4" t="s">
         <v>370</v>
       </c>
+      <c r="D346" s="4">
+        <v>0</v>
+      </c>
       <c r="E346">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10897,6 +11023,9 @@
       <c r="C347" s="4" t="s">
         <v>371</v>
       </c>
+      <c r="D347" s="4">
+        <v>0</v>
+      </c>
       <c r="E347">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10920,6 +11049,9 @@
       <c r="C348" s="4" t="s">
         <v>372</v>
       </c>
+      <c r="D348" s="4">
+        <v>0</v>
+      </c>
       <c r="E348">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10943,6 +11075,9 @@
       <c r="C349" s="4" t="s">
         <v>373</v>
       </c>
+      <c r="D349" s="4">
+        <v>0</v>
+      </c>
       <c r="E349">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10966,6 +11101,9 @@
       <c r="C350" s="4" t="s">
         <v>374</v>
       </c>
+      <c r="D350" s="4">
+        <v>0</v>
+      </c>
       <c r="E350">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -10989,6 +11127,9 @@
       <c r="C351" s="4" t="s">
         <v>375</v>
       </c>
+      <c r="D351" s="4">
+        <v>0</v>
+      </c>
       <c r="E351">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11012,6 +11153,9 @@
       <c r="C352" s="4" t="s">
         <v>376</v>
       </c>
+      <c r="D352" s="4">
+        <v>0</v>
+      </c>
       <c r="E352">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11035,6 +11179,9 @@
       <c r="C353" s="4" t="s">
         <v>377</v>
       </c>
+      <c r="D353" s="4">
+        <v>0</v>
+      </c>
       <c r="E353">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11058,6 +11205,9 @@
       <c r="C354" s="4" t="s">
         <v>378</v>
       </c>
+      <c r="D354" s="4">
+        <v>0</v>
+      </c>
       <c r="E354">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11081,6 +11231,9 @@
       <c r="C355" s="4" t="s">
         <v>379</v>
       </c>
+      <c r="D355" s="4">
+        <v>0</v>
+      </c>
       <c r="E355">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11104,6 +11257,9 @@
       <c r="C356" s="4" t="s">
         <v>380</v>
       </c>
+      <c r="D356" s="4">
+        <v>0</v>
+      </c>
       <c r="E356">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11127,6 +11283,9 @@
       <c r="C357" s="4" t="s">
         <v>381</v>
       </c>
+      <c r="D357" s="4">
+        <v>0</v>
+      </c>
       <c r="E357">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11150,6 +11309,9 @@
       <c r="C358" s="4" t="s">
         <v>382</v>
       </c>
+      <c r="D358" s="4">
+        <v>0</v>
+      </c>
       <c r="E358">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11173,6 +11335,9 @@
       <c r="C359" s="4" t="s">
         <v>383</v>
       </c>
+      <c r="D359" s="4">
+        <v>0</v>
+      </c>
       <c r="E359">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11196,6 +11361,9 @@
       <c r="C360" s="4" t="s">
         <v>384</v>
       </c>
+      <c r="D360" s="4">
+        <v>0</v>
+      </c>
       <c r="E360">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11219,6 +11387,9 @@
       <c r="C361" s="4" t="s">
         <v>385</v>
       </c>
+      <c r="D361" s="4">
+        <v>0</v>
+      </c>
       <c r="E361">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11242,6 +11413,9 @@
       <c r="C362" s="4" t="s">
         <v>386</v>
       </c>
+      <c r="D362" s="4">
+        <v>0</v>
+      </c>
       <c r="E362">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11265,6 +11439,9 @@
       <c r="C363" s="4" t="s">
         <v>333</v>
       </c>
+      <c r="D363" s="4">
+        <v>0</v>
+      </c>
       <c r="E363">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11288,6 +11465,9 @@
       <c r="C364" s="4" t="s">
         <v>387</v>
       </c>
+      <c r="D364" s="4">
+        <v>0</v>
+      </c>
       <c r="E364">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11311,6 +11491,9 @@
       <c r="C365" s="4" t="s">
         <v>388</v>
       </c>
+      <c r="D365" s="4">
+        <v>0</v>
+      </c>
       <c r="E365">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11324,7 +11507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" ht="367.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>3965</v>
       </c>
@@ -11334,9 +11517,12 @@
       <c r="C366" s="4" t="s">
         <v>390</v>
       </c>
+      <c r="D366" s="4">
+        <v>1</v>
+      </c>
       <c r="E366">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F366">
         <f t="shared" si="16"/>
@@ -11344,7 +11530,7 @@
       </c>
       <c r="G366">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -11357,6 +11543,9 @@
       <c r="C367" s="4" t="s">
         <v>391</v>
       </c>
+      <c r="D367" s="4">
+        <v>0</v>
+      </c>
       <c r="E367">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11380,6 +11569,9 @@
       <c r="C368" s="4" t="s">
         <v>392</v>
       </c>
+      <c r="D368" s="4">
+        <v>0</v>
+      </c>
       <c r="E368">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11403,9 +11595,12 @@
       <c r="C369" s="4" t="s">
         <v>393</v>
       </c>
+      <c r="D369" s="4">
+        <v>1</v>
+      </c>
       <c r="E369">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F369">
         <f t="shared" si="16"/>
@@ -11413,7 +11608,7 @@
       </c>
       <c r="G369">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -11426,6 +11621,9 @@
       <c r="C370" s="4" t="s">
         <v>394</v>
       </c>
+      <c r="D370" s="4">
+        <v>0</v>
+      </c>
       <c r="E370">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11449,6 +11647,9 @@
       <c r="C371" s="4" t="s">
         <v>395</v>
       </c>
+      <c r="D371" s="4">
+        <v>0</v>
+      </c>
       <c r="E371">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11472,6 +11673,9 @@
       <c r="C372" s="4" t="s">
         <v>396</v>
       </c>
+      <c r="D372" s="4">
+        <v>0</v>
+      </c>
       <c r="E372">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11495,17 +11699,20 @@
       <c r="C373" s="4" t="s">
         <v>397</v>
       </c>
+      <c r="D373" s="4">
+        <v>2</v>
+      </c>
       <c r="E373">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F373">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G373">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -11518,6 +11725,9 @@
       <c r="C374" s="4" t="s">
         <v>398</v>
       </c>
+      <c r="D374" s="4">
+        <v>0</v>
+      </c>
       <c r="E374">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11541,6 +11751,9 @@
       <c r="C375" s="4" t="s">
         <v>399</v>
       </c>
+      <c r="D375" s="4">
+        <v>0</v>
+      </c>
       <c r="E375">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11564,6 +11777,9 @@
       <c r="C376" s="4" t="s">
         <v>400</v>
       </c>
+      <c r="D376" s="4">
+        <v>0</v>
+      </c>
       <c r="E376">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11587,6 +11803,9 @@
       <c r="C377" s="4" t="s">
         <v>401</v>
       </c>
+      <c r="D377" s="4">
+        <v>0</v>
+      </c>
       <c r="E377">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11610,6 +11829,9 @@
       <c r="C378" s="4" t="s">
         <v>402</v>
       </c>
+      <c r="D378" s="4">
+        <v>0</v>
+      </c>
       <c r="E378">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11633,6 +11855,9 @@
       <c r="C379" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D379" s="4">
+        <v>0</v>
+      </c>
       <c r="E379">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11656,6 +11881,9 @@
       <c r="C380" s="4" t="s">
         <v>403</v>
       </c>
+      <c r="D380" s="4">
+        <v>0</v>
+      </c>
       <c r="E380">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11679,6 +11907,9 @@
       <c r="C381" s="4" t="s">
         <v>404</v>
       </c>
+      <c r="D381" s="4">
+        <v>0</v>
+      </c>
       <c r="E381">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11702,6 +11933,9 @@
       <c r="C382" s="4" t="s">
         <v>405</v>
       </c>
+      <c r="D382" s="4">
+        <v>0</v>
+      </c>
       <c r="E382">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11725,6 +11959,9 @@
       <c r="C383" s="4" t="s">
         <v>286</v>
       </c>
+      <c r="D383" s="4">
+        <v>0</v>
+      </c>
       <c r="E383">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11748,6 +11985,9 @@
       <c r="C384" s="4" t="s">
         <v>406</v>
       </c>
+      <c r="D384" s="4">
+        <v>0</v>
+      </c>
       <c r="E384">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11771,6 +12011,9 @@
       <c r="C385" s="4" t="s">
         <v>407</v>
       </c>
+      <c r="D385" s="4">
+        <v>0</v>
+      </c>
       <c r="E385">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11794,6 +12037,9 @@
       <c r="C386" s="4" t="s">
         <v>408</v>
       </c>
+      <c r="D386" s="4">
+        <v>0</v>
+      </c>
       <c r="E386">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -11817,6 +12063,9 @@
       <c r="C387" s="4" t="s">
         <v>409</v>
       </c>
+      <c r="D387" s="4">
+        <v>0</v>
+      </c>
       <c r="E387">
         <f t="shared" ref="E387:E450" si="18">IF(D387=1,1,0)</f>
         <v>0</v>
@@ -11840,6 +12089,9 @@
       <c r="C388" s="4" t="s">
         <v>410</v>
       </c>
+      <c r="D388" s="4">
+        <v>0</v>
+      </c>
       <c r="E388">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -11863,6 +12115,9 @@
       <c r="C389" s="4" t="s">
         <v>411</v>
       </c>
+      <c r="D389" s="4">
+        <v>0</v>
+      </c>
       <c r="E389">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -11886,6 +12141,9 @@
       <c r="C390" s="4" t="s">
         <v>412</v>
       </c>
+      <c r="D390" s="4">
+        <v>0</v>
+      </c>
       <c r="E390">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -11909,6 +12167,9 @@
       <c r="C391" s="4" t="s">
         <v>413</v>
       </c>
+      <c r="D391" s="4">
+        <v>0</v>
+      </c>
       <c r="E391">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -11932,6 +12193,9 @@
       <c r="C392" s="4" t="s">
         <v>414</v>
       </c>
+      <c r="D392" s="4">
+        <v>0</v>
+      </c>
       <c r="E392">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -11955,6 +12219,9 @@
       <c r="C393" s="4" t="s">
         <v>415</v>
       </c>
+      <c r="D393" s="4">
+        <v>0</v>
+      </c>
       <c r="E393">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -11978,6 +12245,9 @@
       <c r="C394" s="4" t="s">
         <v>416</v>
       </c>
+      <c r="D394" s="4">
+        <v>0</v>
+      </c>
       <c r="E394">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12001,6 +12271,9 @@
       <c r="C395" s="4" t="s">
         <v>417</v>
       </c>
+      <c r="D395" s="4">
+        <v>0</v>
+      </c>
       <c r="E395">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12024,6 +12297,9 @@
       <c r="C396" s="4" t="s">
         <v>418</v>
       </c>
+      <c r="D396" s="4">
+        <v>0</v>
+      </c>
       <c r="E396">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12047,6 +12323,9 @@
       <c r="C397" s="4" t="s">
         <v>419</v>
       </c>
+      <c r="D397" s="4">
+        <v>0</v>
+      </c>
       <c r="E397">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12070,6 +12349,9 @@
       <c r="C398" s="4" t="s">
         <v>420</v>
       </c>
+      <c r="D398" s="4">
+        <v>0</v>
+      </c>
       <c r="E398">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12093,6 +12375,9 @@
       <c r="C399" s="4" t="s">
         <v>422</v>
       </c>
+      <c r="D399" s="4">
+        <v>0</v>
+      </c>
       <c r="E399">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12116,6 +12401,9 @@
       <c r="C400" s="4" t="s">
         <v>423</v>
       </c>
+      <c r="D400" s="4">
+        <v>0</v>
+      </c>
       <c r="E400">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12129,7 +12417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>24042</v>
       </c>
@@ -12139,9 +12427,12 @@
       <c r="C401" s="4" t="s">
         <v>424</v>
       </c>
+      <c r="D401" s="4">
+        <v>1</v>
+      </c>
       <c r="E401">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F401">
         <f t="shared" si="19"/>
@@ -12149,7 +12440,7 @@
       </c>
       <c r="G401">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12162,6 +12453,9 @@
       <c r="C402" s="4" t="s">
         <v>425</v>
       </c>
+      <c r="D402" s="4">
+        <v>0</v>
+      </c>
       <c r="E402">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12185,6 +12479,9 @@
       <c r="C403" s="4" t="s">
         <v>426</v>
       </c>
+      <c r="D403" s="4">
+        <v>0</v>
+      </c>
       <c r="E403">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12208,6 +12505,9 @@
       <c r="C404" s="4" t="s">
         <v>427</v>
       </c>
+      <c r="D404" s="4">
+        <v>0</v>
+      </c>
       <c r="E404">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12231,17 +12531,20 @@
       <c r="C405" s="4" t="s">
         <v>428</v>
       </c>
+      <c r="D405" s="4">
+        <v>2</v>
+      </c>
       <c r="E405">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F405">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G405">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12254,6 +12557,9 @@
       <c r="C406" s="4" t="s">
         <v>429</v>
       </c>
+      <c r="D406" s="4">
+        <v>0</v>
+      </c>
       <c r="E406">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12277,6 +12583,9 @@
       <c r="C407" s="4" t="s">
         <v>430</v>
       </c>
+      <c r="D407" s="4">
+        <v>0</v>
+      </c>
       <c r="E407">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12300,6 +12609,9 @@
       <c r="C408" s="4" t="s">
         <v>431</v>
       </c>
+      <c r="D408" s="4">
+        <v>0</v>
+      </c>
       <c r="E408">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12313,7 +12625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>20489</v>
       </c>
@@ -12323,20 +12635,23 @@
       <c r="C409" s="4" t="s">
         <v>432</v>
       </c>
+      <c r="D409" s="4">
+        <v>2</v>
+      </c>
       <c r="E409">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F409">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G409">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" ht="213" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>4845</v>
       </c>
@@ -12346,9 +12661,12 @@
       <c r="C410" s="4" t="s">
         <v>433</v>
       </c>
+      <c r="D410" s="4">
+        <v>1</v>
+      </c>
       <c r="E410">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F410">
         <f t="shared" si="19"/>
@@ -12356,7 +12674,7 @@
       </c>
       <c r="G410">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12369,6 +12687,9 @@
       <c r="C411" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D411" s="4">
+        <v>0</v>
+      </c>
       <c r="E411">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12392,6 +12713,9 @@
       <c r="C412" s="4" t="s">
         <v>434</v>
       </c>
+      <c r="D412" s="4">
+        <v>0</v>
+      </c>
       <c r="E412">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12415,9 +12739,12 @@
       <c r="C413" s="4" t="s">
         <v>436</v>
       </c>
+      <c r="D413" s="4">
+        <v>1</v>
+      </c>
       <c r="E413">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F413">
         <f t="shared" si="19"/>
@@ -12425,7 +12752,7 @@
       </c>
       <c r="G413">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12438,6 +12765,9 @@
       <c r="C414" s="4" t="s">
         <v>437</v>
       </c>
+      <c r="D414" s="4">
+        <v>0</v>
+      </c>
       <c r="E414">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12461,6 +12791,9 @@
       <c r="C415" s="4" t="s">
         <v>319</v>
       </c>
+      <c r="D415" s="4">
+        <v>0</v>
+      </c>
       <c r="E415">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12484,6 +12817,9 @@
       <c r="C416" s="4" t="s">
         <v>438</v>
       </c>
+      <c r="D416" s="4">
+        <v>0</v>
+      </c>
       <c r="E416">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12507,6 +12843,9 @@
       <c r="C417" s="4" t="s">
         <v>439</v>
       </c>
+      <c r="D417" s="4">
+        <v>0</v>
+      </c>
       <c r="E417">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12530,6 +12869,9 @@
       <c r="C418" s="4" t="s">
         <v>440</v>
       </c>
+      <c r="D418" s="4">
+        <v>0</v>
+      </c>
       <c r="E418">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12553,6 +12895,9 @@
       <c r="C419" s="4" t="s">
         <v>441</v>
       </c>
+      <c r="D419" s="4">
+        <v>0</v>
+      </c>
       <c r="E419">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12576,6 +12921,9 @@
       <c r="C420" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="D420" s="4">
+        <v>0</v>
+      </c>
       <c r="E420">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12599,6 +12947,9 @@
       <c r="C421" s="4" t="s">
         <v>443</v>
       </c>
+      <c r="D421" s="4">
+        <v>0</v>
+      </c>
       <c r="E421">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12622,6 +12973,9 @@
       <c r="C422" s="4" t="s">
         <v>444</v>
       </c>
+      <c r="D422" s="4">
+        <v>0</v>
+      </c>
       <c r="E422">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12635,7 +12989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>25511</v>
       </c>
@@ -12644,6 +12998,9 @@
       </c>
       <c r="C423" s="4" t="s">
         <v>445</v>
+      </c>
+      <c r="D423" s="4">
+        <v>0</v>
       </c>
       <c r="E423">
         <f t="shared" si="18"/>
@@ -12668,6 +13025,9 @@
       <c r="C424" s="4" t="s">
         <v>446</v>
       </c>
+      <c r="D424" s="4">
+        <v>0</v>
+      </c>
       <c r="E424">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12691,9 +13051,12 @@
       <c r="C425" s="4" t="s">
         <v>447</v>
       </c>
+      <c r="D425" s="4">
+        <v>1</v>
+      </c>
       <c r="E425">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F425">
         <f t="shared" si="19"/>
@@ -12701,7 +13064,7 @@
       </c>
       <c r="G425">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12714,6 +13077,9 @@
       <c r="C426" s="4" t="s">
         <v>448</v>
       </c>
+      <c r="D426" s="4">
+        <v>0</v>
+      </c>
       <c r="E426">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12737,6 +13103,9 @@
       <c r="C427" s="4" t="s">
         <v>449</v>
       </c>
+      <c r="D427" s="4">
+        <v>0</v>
+      </c>
       <c r="E427">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12760,6 +13129,9 @@
       <c r="C428" s="4" t="s">
         <v>286</v>
       </c>
+      <c r="D428" s="4">
+        <v>0</v>
+      </c>
       <c r="E428">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12783,9 +13155,12 @@
       <c r="C429" s="4" t="s">
         <v>450</v>
       </c>
+      <c r="D429" s="4">
+        <v>1</v>
+      </c>
       <c r="E429">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F429">
         <f t="shared" si="19"/>
@@ -12793,7 +13168,7 @@
       </c>
       <c r="G429">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12806,9 +13181,12 @@
       <c r="C430" s="4" t="s">
         <v>451</v>
       </c>
+      <c r="D430" s="4">
+        <v>1</v>
+      </c>
       <c r="E430">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F430">
         <f t="shared" si="19"/>
@@ -12816,7 +13194,7 @@
       </c>
       <c r="G430">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12829,6 +13207,9 @@
       <c r="C431" s="4" t="s">
         <v>452</v>
       </c>
+      <c r="D431" s="4">
+        <v>0</v>
+      </c>
       <c r="E431">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12852,6 +13233,9 @@
       <c r="C432" s="4" t="s">
         <v>453</v>
       </c>
+      <c r="D432" s="4">
+        <v>0</v>
+      </c>
       <c r="E432">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12875,6 +13259,9 @@
       <c r="C433" s="4" t="s">
         <v>454</v>
       </c>
+      <c r="D433" s="4">
+        <v>0</v>
+      </c>
       <c r="E433">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12898,6 +13285,9 @@
       <c r="C434" s="4" t="s">
         <v>455</v>
       </c>
+      <c r="D434" s="4">
+        <v>0</v>
+      </c>
       <c r="E434">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12921,6 +13311,9 @@
       <c r="C435" s="4" t="s">
         <v>456</v>
       </c>
+      <c r="D435" s="4">
+        <v>0</v>
+      </c>
       <c r="E435">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12944,6 +13337,9 @@
       <c r="C436" s="4" t="s">
         <v>457</v>
       </c>
+      <c r="D436" s="4">
+        <v>0</v>
+      </c>
       <c r="E436">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12967,6 +13363,9 @@
       <c r="C437" s="4" t="s">
         <v>458</v>
       </c>
+      <c r="D437" s="4">
+        <v>0</v>
+      </c>
       <c r="E437">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12980,7 +13379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" ht="260.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>21674</v>
       </c>
@@ -12990,9 +13389,12 @@
       <c r="C438" s="4" t="s">
         <v>459</v>
       </c>
+      <c r="D438" s="4">
+        <v>1</v>
+      </c>
       <c r="E438">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F438">
         <f t="shared" si="19"/>
@@ -13000,10 +13402,10 @@
       </c>
       <c r="G438">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" ht="52.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>38877</v>
       </c>
@@ -13013,6 +13415,9 @@
       <c r="C439" s="4" t="s">
         <v>460</v>
       </c>
+      <c r="D439" s="4">
+        <v>0</v>
+      </c>
       <c r="E439">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13026,7 +13431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" ht="147" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>27531</v>
       </c>
@@ -13035,6 +13440,9 @@
       </c>
       <c r="C440" s="4" t="s">
         <v>461</v>
+      </c>
+      <c r="D440" s="4">
+        <v>0</v>
       </c>
       <c r="E440">
         <f t="shared" si="18"/>
@@ -13059,6 +13467,9 @@
       <c r="C441" s="4" t="s">
         <v>462</v>
       </c>
+      <c r="D441" s="4">
+        <v>0</v>
+      </c>
       <c r="E441">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13072,7 +13483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>23507</v>
       </c>
@@ -13082,9 +13493,12 @@
       <c r="C442" s="4" t="s">
         <v>463</v>
       </c>
+      <c r="D442" s="4">
+        <v>1</v>
+      </c>
       <c r="E442">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F442">
         <f t="shared" si="19"/>
@@ -13092,7 +13506,7 @@
       </c>
       <c r="G442">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13105,6 +13519,9 @@
       <c r="C443" s="4" t="s">
         <v>464</v>
       </c>
+      <c r="D443" s="4">
+        <v>0</v>
+      </c>
       <c r="E443">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13128,6 +13545,9 @@
       <c r="C444" s="4" t="s">
         <v>465</v>
       </c>
+      <c r="D444" s="4">
+        <v>0</v>
+      </c>
       <c r="E444">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13151,17 +13571,20 @@
       <c r="C445" s="4" t="s">
         <v>466</v>
       </c>
+      <c r="D445" s="4">
+        <v>2</v>
+      </c>
       <c r="E445">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F445">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G445">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13174,6 +13597,9 @@
       <c r="C446" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="D446" s="4">
+        <v>0</v>
+      </c>
       <c r="E446">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13197,6 +13623,9 @@
       <c r="C447" s="4" t="s">
         <v>468</v>
       </c>
+      <c r="D447" s="4">
+        <v>0</v>
+      </c>
       <c r="E447">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13220,6 +13649,9 @@
       <c r="C448" s="4" t="s">
         <v>469</v>
       </c>
+      <c r="D448" s="4">
+        <v>0</v>
+      </c>
       <c r="E448">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13243,9 +13675,12 @@
       <c r="C449" s="4" t="s">
         <v>470</v>
       </c>
+      <c r="D449" s="4">
+        <v>1</v>
+      </c>
       <c r="E449">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F449">
         <f t="shared" si="19"/>
@@ -13253,7 +13688,7 @@
       </c>
       <c r="G449">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13266,6 +13701,9 @@
       <c r="C450" s="4" t="s">
         <v>471</v>
       </c>
+      <c r="D450" s="4">
+        <v>0</v>
+      </c>
       <c r="E450">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13289,6 +13727,9 @@
       <c r="C451" s="4" t="s">
         <v>472</v>
       </c>
+      <c r="D451" s="4">
+        <v>0</v>
+      </c>
       <c r="E451">
         <f t="shared" ref="E451:E501" si="21">IF(D451=1,1,0)</f>
         <v>0</v>
@@ -13312,6 +13753,9 @@
       <c r="C452" s="4" t="s">
         <v>473</v>
       </c>
+      <c r="D452" s="4">
+        <v>0</v>
+      </c>
       <c r="E452">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13335,6 +13779,9 @@
       <c r="C453" s="4" t="s">
         <v>474</v>
       </c>
+      <c r="D453" s="4">
+        <v>0</v>
+      </c>
       <c r="E453">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13358,6 +13805,9 @@
       <c r="C454" s="4" t="s">
         <v>475</v>
       </c>
+      <c r="D454" s="4">
+        <v>0</v>
+      </c>
       <c r="E454">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13381,6 +13831,9 @@
       <c r="C455" s="4" t="s">
         <v>476</v>
       </c>
+      <c r="D455" s="4">
+        <v>0</v>
+      </c>
       <c r="E455">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13404,6 +13857,9 @@
       <c r="C456" s="4" t="s">
         <v>477</v>
       </c>
+      <c r="D456" s="4">
+        <v>0</v>
+      </c>
       <c r="E456">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13427,6 +13883,9 @@
       <c r="C457" s="4" t="s">
         <v>478</v>
       </c>
+      <c r="D457" s="4">
+        <v>0</v>
+      </c>
       <c r="E457">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13440,7 +13899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>6998</v>
       </c>
@@ -13449,6 +13908,9 @@
       </c>
       <c r="C458" s="4" t="s">
         <v>479</v>
+      </c>
+      <c r="D458" s="4">
+        <v>0</v>
       </c>
       <c r="E458">
         <f t="shared" si="21"/>
@@ -13473,6 +13935,9 @@
       <c r="C459" s="4" t="s">
         <v>480</v>
       </c>
+      <c r="D459" s="4">
+        <v>0</v>
+      </c>
       <c r="E459">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13496,6 +13961,9 @@
       <c r="C460" s="4" t="s">
         <v>481</v>
       </c>
+      <c r="D460" s="4">
+        <v>0</v>
+      </c>
       <c r="E460">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13519,9 +13987,12 @@
       <c r="C461" s="4" t="s">
         <v>483</v>
       </c>
+      <c r="D461" s="4">
+        <v>1</v>
+      </c>
       <c r="E461">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F461">
         <f t="shared" si="22"/>
@@ -13529,7 +14000,7 @@
       </c>
       <c r="G461">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13542,6 +14013,9 @@
       <c r="C462" s="4" t="s">
         <v>484</v>
       </c>
+      <c r="D462" s="4">
+        <v>0</v>
+      </c>
       <c r="E462">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13565,6 +14039,9 @@
       <c r="C463" s="4" t="s">
         <v>485</v>
       </c>
+      <c r="D463" s="4">
+        <v>0</v>
+      </c>
       <c r="E463">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13588,6 +14065,9 @@
       <c r="C464" s="4" t="s">
         <v>486</v>
       </c>
+      <c r="D464" s="4">
+        <v>0</v>
+      </c>
       <c r="E464">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13611,6 +14091,9 @@
       <c r="C465" s="4" t="s">
         <v>487</v>
       </c>
+      <c r="D465" s="4">
+        <v>0</v>
+      </c>
       <c r="E465">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13634,6 +14117,9 @@
       <c r="C466" s="4" t="s">
         <v>488</v>
       </c>
+      <c r="D466" s="4">
+        <v>0</v>
+      </c>
       <c r="E466">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13657,6 +14143,9 @@
       <c r="C467" s="4" t="s">
         <v>489</v>
       </c>
+      <c r="D467" s="4">
+        <v>0</v>
+      </c>
       <c r="E467">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13680,6 +14169,9 @@
       <c r="C468" s="4" t="s">
         <v>490</v>
       </c>
+      <c r="D468" s="4">
+        <v>0</v>
+      </c>
       <c r="E468">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13703,6 +14195,9 @@
       <c r="C469" s="4" t="s">
         <v>491</v>
       </c>
+      <c r="D469" s="4">
+        <v>0</v>
+      </c>
       <c r="E469">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13726,6 +14221,9 @@
       <c r="C470" s="4" t="s">
         <v>492</v>
       </c>
+      <c r="D470" s="4">
+        <v>0</v>
+      </c>
       <c r="E470">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13749,17 +14247,20 @@
       <c r="C471" s="4" t="s">
         <v>493</v>
       </c>
+      <c r="D471" s="4">
+        <v>2</v>
+      </c>
       <c r="E471">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F471">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G471">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13772,6 +14273,9 @@
       <c r="C472" s="4" t="s">
         <v>494</v>
       </c>
+      <c r="D472" s="4">
+        <v>0</v>
+      </c>
       <c r="E472">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13785,7 +14289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>37303</v>
       </c>
@@ -13795,9 +14299,12 @@
       <c r="C473" s="4" t="s">
         <v>495</v>
       </c>
+      <c r="D473" s="4">
+        <v>1</v>
+      </c>
       <c r="E473">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F473">
         <f t="shared" si="22"/>
@@ -13805,7 +14312,7 @@
       </c>
       <c r="G473">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13818,6 +14325,9 @@
       <c r="C474" s="4" t="s">
         <v>496</v>
       </c>
+      <c r="D474" s="4">
+        <v>0</v>
+      </c>
       <c r="E474">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13841,6 +14351,9 @@
       <c r="C475" s="4" t="s">
         <v>497</v>
       </c>
+      <c r="D475" s="4">
+        <v>0</v>
+      </c>
       <c r="E475">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13864,6 +14377,9 @@
       <c r="C476" s="4" t="s">
         <v>498</v>
       </c>
+      <c r="D476" s="4">
+        <v>0</v>
+      </c>
       <c r="E476">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13887,6 +14403,9 @@
       <c r="C477" s="4" t="s">
         <v>499</v>
       </c>
+      <c r="D477" s="4">
+        <v>0</v>
+      </c>
       <c r="E477">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13910,17 +14429,20 @@
       <c r="C478" s="4" t="s">
         <v>500</v>
       </c>
+      <c r="D478" s="4">
+        <v>2</v>
+      </c>
       <c r="E478">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F478">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G478">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13933,6 +14455,9 @@
       <c r="C479" s="4" t="s">
         <v>501</v>
       </c>
+      <c r="D479" s="4">
+        <v>0</v>
+      </c>
       <c r="E479">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13956,6 +14481,9 @@
       <c r="C480" s="4" t="s">
         <v>502</v>
       </c>
+      <c r="D480" s="4">
+        <v>0</v>
+      </c>
       <c r="E480">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13979,6 +14507,9 @@
       <c r="C481" s="4" t="s">
         <v>503</v>
       </c>
+      <c r="D481" s="4">
+        <v>0</v>
+      </c>
       <c r="E481">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -14002,6 +14533,9 @@
       <c r="C482" s="4" t="s">
         <v>504</v>
       </c>
+      <c r="D482" s="4">
+        <v>0</v>
+      </c>
       <c r="E482">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -14025,6 +14559,9 @@
       <c r="C483" s="4" t="s">
         <v>505</v>
       </c>
+      <c r="D483" s="4">
+        <v>0</v>
+      </c>
       <c r="E483">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -14048,6 +14585,9 @@
       <c r="C484" s="4" t="s">
         <v>506</v>
       </c>
+      <c r="D484" s="4">
+        <v>0</v>
+      </c>
       <c r="E484">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -14071,6 +14611,9 @@
       <c r="C485" s="4" t="s">
         <v>507</v>
       </c>
+      <c r="D485" s="4">
+        <v>0</v>
+      </c>
       <c r="E485">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -14084,7 +14627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" ht="405" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>15780</v>
       </c>
@@ -14094,9 +14637,12 @@
       <c r="C486" s="4" t="s">
         <v>508</v>
       </c>
+      <c r="D486" s="4">
+        <v>1</v>
+      </c>
       <c r="E486">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F486">
         <f t="shared" si="22"/>
@@ -14104,7 +14650,7 @@
       </c>
       <c r="G486">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14117,6 +14663,9 @@
       <c r="C487" s="4" t="s">
         <v>509</v>
       </c>
+      <c r="D487" s="4">
+        <v>0</v>
+      </c>
       <c r="E487">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -14140,6 +14689,9 @@
       <c r="C488" s="4" t="s">
         <v>172</v>
       </c>
+      <c r="D488" s="4">
+        <v>0</v>
+      </c>
       <c r="E488">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -14163,6 +14715,9 @@
       <c r="C489" s="4" t="s">
         <v>510</v>
       </c>
+      <c r="D489" s="4">
+        <v>0</v>
+      </c>
       <c r="E489">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -14186,6 +14741,9 @@
       <c r="C490" s="4" t="s">
         <v>511</v>
       </c>
+      <c r="D490" s="4">
+        <v>0</v>
+      </c>
       <c r="E490">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -14199,7 +14757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>21869</v>
       </c>
@@ -14209,9 +14767,12 @@
       <c r="C491" s="4" t="s">
         <v>512</v>
       </c>
+      <c r="D491" s="4">
+        <v>1</v>
+      </c>
       <c r="E491">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F491">
         <f t="shared" si="22"/>
@@ -14219,10 +14780,10 @@
       </c>
       <c r="G491">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="492" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>18603</v>
       </c>
@@ -14232,6 +14793,9 @@
       <c r="C492" s="4" t="s">
         <v>513</v>
       </c>
+      <c r="D492" s="4">
+        <v>0</v>
+      </c>
       <c r="E492">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -14245,7 +14809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>21284</v>
       </c>
@@ -14254,6 +14818,9 @@
       </c>
       <c r="C493" s="4" t="s">
         <v>514</v>
+      </c>
+      <c r="D493" s="4">
+        <v>0</v>
       </c>
       <c r="E493">
         <f t="shared" si="21"/>
@@ -14278,6 +14845,9 @@
       <c r="C494" s="4" t="s">
         <v>515</v>
       </c>
+      <c r="D494" s="4">
+        <v>0</v>
+      </c>
       <c r="E494">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -14301,6 +14871,9 @@
       <c r="C495" s="4" t="s">
         <v>516</v>
       </c>
+      <c r="D495" s="4">
+        <v>0</v>
+      </c>
       <c r="E495">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -14324,6 +14897,9 @@
       <c r="C496" s="4" t="s">
         <v>517</v>
       </c>
+      <c r="D496" s="4">
+        <v>0</v>
+      </c>
       <c r="E496">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -14347,6 +14923,9 @@
       <c r="C497" s="4" t="s">
         <v>518</v>
       </c>
+      <c r="D497" s="4">
+        <v>0</v>
+      </c>
       <c r="E497">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -14370,6 +14949,9 @@
       <c r="C498" s="4" t="s">
         <v>519</v>
       </c>
+      <c r="D498" s="4">
+        <v>0</v>
+      </c>
       <c r="E498">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -14383,7 +14965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>3768</v>
       </c>
@@ -14393,9 +14975,12 @@
       <c r="C499" s="4" t="s">
         <v>520</v>
       </c>
+      <c r="D499" s="4">
+        <v>1</v>
+      </c>
       <c r="E499">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F499">
         <f t="shared" si="22"/>
@@ -14403,7 +14988,7 @@
       </c>
       <c r="G499">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14416,6 +15001,9 @@
       <c r="C500" s="4" t="s">
         <v>521</v>
       </c>
+      <c r="D500" s="4">
+        <v>0</v>
+      </c>
       <c r="E500">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -14429,7 +15017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>26833</v>
       </c>
@@ -14439,17 +15027,20 @@
       <c r="C501" s="4" t="s">
         <v>522</v>
       </c>
+      <c r="D501" s="4">
+        <v>2</v>
+      </c>
       <c r="E501">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F501">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G501">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
